--- a/data/metadata/Informe-01-010052-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010052-A-TC-TM-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t>unidades-de-trabajo-que-son-asalariados-eventuales</t>
   </si>
@@ -82,7 +82,7 @@
     <t>iaest-measure:unidades-de-trabajo-que-son-asalariados</t>
   </si>
   <si>
-    <t>sdmx-dimension:refArea</t>
+    <t>iaest-measure:provincia</t>
   </si>
   <si>
     <t>null</t>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>skos:Concept</t>
-  </si>
-  <si>
-    <t>URI-Provincia</t>
   </si>
   <si>
     <t>mapping-ccaa-nombre.xlsx</t>
@@ -304,7 +301,7 @@
         <v>30</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>24</v>
@@ -354,7 +351,7 @@
         <v>32</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>24</v>
@@ -383,10 +380,10 @@
     </row>
     <row r="5">
       <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-01-010052-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010052-A-TC-TM-TP.xlsx
@@ -11,111 +11,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
-  <si>
-    <t>unidades-de-trabajo-que-son-asalariados-eventuales</t>
-  </si>
-  <si>
-    <t>unidades-de-trabajo-que-siendo-mano-de-obra-familiar-son-titulares-explotacion</t>
-  </si>
-  <si>
-    <t>ccaa-nombre</t>
-  </si>
-  <si>
-    <t>nombre-del-municipio</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>unidades-de-trabajo-que-son-asalariados-fijos</t>
-  </si>
-  <si>
-    <t>unidades-de-trabajo-que-son-asalariados</t>
-  </si>
-  <si>
-    <t>provincia</t>
-  </si>
-  <si>
-    <t>codigo-de-la-provincia</t>
-  </si>
-  <si>
-    <t>comarca</t>
-  </si>
-  <si>
-    <t>unidades-de-trabajo-que-siendo-mano-de-obra-familiar-son-conyuges</t>
-  </si>
-  <si>
-    <t>unidades-de-trabajo-que-son-mano-de-obra-familiar</t>
-  </si>
-  <si>
-    <t>unidades-de-trabajo-que-siendo-mano-de-obra-familiar-son-otros-diferentes</t>
-  </si>
-  <si>
-    <t>codigo-del-municipio</t>
-  </si>
-  <si>
-    <t>codigo-de-la-comarca</t>
-  </si>
-  <si>
-    <t>unidades-de-trabajo-que-son-jefes-de-explotacion</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+  <si>
+    <t>Unidades de trabajo que son jefes de explotación</t>
+  </si>
+  <si>
+    <t>Código de la provincia</t>
+  </si>
+  <si>
+    <t>CCAA nombre</t>
+  </si>
+  <si>
+    <t>Unidades de trabajo que son asalariados fijos</t>
+  </si>
+  <si>
+    <t>Unidades de trabajo que son asalariados eventuales</t>
+  </si>
+  <si>
+    <t>Comarca</t>
+  </si>
+  <si>
+    <t>Unidades de trabajo que siendo mano de obra familiar son cónyuges</t>
+  </si>
+  <si>
+    <t>Nombre del municipio</t>
+  </si>
+  <si>
+    <t>Unidades de trabajo que siendo mano de obra familiar son otros diferentes</t>
+  </si>
+  <si>
+    <t>Unidades de trabajo que son asalariados</t>
+  </si>
+  <si>
+    <t>Código del municipio</t>
+  </si>
+  <si>
+    <t>Unidades de trabajo que siendo mano de obra familiar son titulares explotación</t>
+  </si>
+  <si>
+    <t>Código de la comarca</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Unidades de trabajo que son mano de obra familiar</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>iaest-measure:unidades-de-trabajo-que-son-jefes-de-explotacion</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>iaest-measure:unidades-de-trabajo-que-son-asalariados-fijos</t>
   </si>
   <si>
     <t>iaest-measure:unidades-de-trabajo-que-son-asalariados-eventuales</t>
   </si>
   <si>
+    <t>iaest-measure:comarca</t>
+  </si>
+  <si>
+    <t>iaest-measure:unidades-de-trabajo-que-siendo-mano-de-obra-familiar-son-conyuges</t>
+  </si>
+  <si>
+    <t>iaest-measure:nombre-del-municipio</t>
+  </si>
+  <si>
+    <t>iaest-measure:unidades-de-trabajo-que-siendo-mano-de-obra-familiar-son-otros-diferentes</t>
+  </si>
+  <si>
+    <t>iaest-measure:unidades-de-trabajo-que-son-asalariados</t>
+  </si>
+  <si>
     <t>iaest-measure:unidades-de-trabajo-que-siendo-mano-de-obra-familiar-son-titulares-explotacion</t>
   </si>
   <si>
-    <t>iaest-dimension:ccaa-nombre</t>
-  </si>
-  <si>
-    <t>iaest-measure:nombre-del-municipio</t>
-  </si>
-  <si>
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>iaest-measure:unidades-de-trabajo-que-son-asalariados-fijos</t>
-  </si>
-  <si>
-    <t>iaest-measure:unidades-de-trabajo-que-son-asalariados</t>
+    <t>iaest-measure:unidades-de-trabajo-que-son-mano-de-obra-familiar</t>
   </si>
   <si>
     <t>iaest-measure:provincia</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>iaest-measure:comarca</t>
-  </si>
-  <si>
-    <t>iaest-measure:unidades-de-trabajo-que-siendo-mano-de-obra-familiar-son-conyuges</t>
-  </si>
-  <si>
-    <t>iaest-measure:unidades-de-trabajo-que-son-mano-de-obra-familiar</t>
-  </si>
-  <si>
-    <t>iaest-measure:unidades-de-trabajo-que-siendo-mano-de-obra-familiar-son-otros-diferentes</t>
-  </si>
-  <si>
-    <t>iaest-measure:unidades-de-trabajo-que-son-jefes-de-explotacion</t>
-  </si>
-  <si>
     <t>medida</t>
   </si>
   <si>
     <t>dim</t>
   </si>
   <si>
-    <t>xsd:int</t>
-  </si>
-  <si>
-    <t>skos:Concept</t>
-  </si>
-  <si>
-    <t>mapping-ccaa-nombre.xlsx</t>
+    <t>xsd:double</t>
+  </si>
+  <si>
+    <t>URI-Comunidad</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
+  </si>
+  <si>
+    <t>xsd:date</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
@@ -260,19 +263,19 @@
         <v>25</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>29</v>
@@ -283,7 +286,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>31</v>
@@ -292,37 +295,37 @@
         <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="O3" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>30</v>
@@ -333,7 +336,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -342,48 +345,45 @@
         <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>35</v>
+      <c r="N5" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-01-010052-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010052-A-TC-TM-TP.xlsx
@@ -187,17 +187,22 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -207,15 +212,12 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
